--- a/ServiceManagement_project/src/main/java/resources/testdata.xlsx
+++ b/ServiceManagement_project/src/main/java/resources/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS BRC MKD\git\ServiceManagement_projects\ServiceManagement_project\src\main\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS BRC MKD\git\ServiceManagement_project\ServiceManagement_project\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Username</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>category1</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>defect</t>
+  </si>
+  <si>
+    <t>defect1</t>
+  </si>
+  <si>
+    <t>ADDITEM</t>
+  </si>
+  <si>
+    <t>ITEM1</t>
+  </si>
+  <si>
+    <t>purchase date</t>
+  </si>
+  <si>
+    <t>pur date</t>
   </si>
 </sst>
 </file>
@@ -548,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +687,18 @@
       <c r="AB1" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -748,6 +784,18 @@
       </c>
       <c r="AB2" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
